--- a/input files/L02F/L02F-Link.xlsx
+++ b/input files/L02F/L02F-Link.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\sample files\L02F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\htmlGenerator3\input files\L02G\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,11 +80,10 @@
     <t>TN_Section</t>
   </si>
   <si>
-    <t>&lt;div class="col-md-4"&gt;
-  &lt;div&gt;&lt;img src="#TN_SRC" alt="#TN_ALT"&gt;&lt;/div&gt;
+    <t>&lt;div  class="col-md-3 col-sm-3 col-xs-4 mb-block"&gt;&lt;img src="#TN_SRC"  class="tn-image" alt="#TN_ALT"&gt;
  &lt;div&gt;&lt;label class="h3-36" &gt;#TN_NAME&lt;/label&gt;&lt;/div&gt;
- &lt;div id="div_TN_Description" class="seo-text"&gt;#TN_DESC&lt;/div&gt;
- &lt;div id="div_Text_under_TN"&gt;&lt;a href="#UNDER_URL"&gt;#UNDER_TEXT&lt;/a&gt;&lt;/div&gt;
+ &lt;div class="seo-text"&gt;#TN_DESC&lt;/div&gt;
+ &lt;div&gt;&lt;a href="#UNDER_URL"&gt;#UNDER_TEXT&lt;/a&gt;&lt;/div&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -474,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -515,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>

--- a/input files/L02F/L02F-Link.xlsx
+++ b/input files/L02F/L02F-Link.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\htmlGenerator3\input files\L02G\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\HTML-Generator\input files\L02F\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Breadcrumb</t>
   </si>
@@ -80,11 +80,41 @@
     <t>TN_Section</t>
   </si>
   <si>
+    <t>#LINK:Other_City_LP_Link,#TEXT:Other_City_Name</t>
+  </si>
+  <si>
+    <t>Other_City</t>
+  </si>
+  <si>
     <t>&lt;div  class="col-md-3 col-sm-3 col-xs-4 mb-block"&gt;&lt;img src="#TN_SRC"  class="tn-image" alt="#TN_ALT"&gt;
- &lt;div&gt;&lt;label class="h3-36" &gt;#TN_NAME&lt;/label&gt;&lt;/div&gt;
- &lt;div class="seo-text"&gt;#TN_DESC&lt;/div&gt;
- &lt;div&gt;&lt;a href="#UNDER_URL"&gt;#UNDER_TEXT&lt;/a&gt;&lt;/div&gt;
+&lt;div class="plr10-tn"&gt;&lt;h3 class="h3-36" &gt;#TN_NAME&lt;/h3&gt;
+ &lt;div class="tn-seo-text"&gt;#TN_DESC&lt;/div&gt;
+ &lt;div class="tn-link"&gt;&lt;a href="#UNDER_URL"&gt;#UNDER_TEXT&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>SEO1_Player</t>
+  </si>
+  <si>
+    <t>#CR_IMG_PATH:SEO1_Carousal_Image,#IMG_PATH:SEO1_Image,#CR_IMG_ALT:SEO1_Carousal_Image_AltTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="#IMG_PATH"&gt;
+&lt;img src="#CR_IMG_PATH" alt="#CR_IMG_ALT"&gt;
+&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;a class="hotel-name" href="#LINK"&gt;#TEXT&lt;/a&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table class="table borderless"&gt;&lt;tr&gt;#SUB_CONTENT&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>PARENT_TEMPLATE</t>
+  </si>
+  <si>
+    <t>CONTAIN_SIZE</t>
   </si>
 </sst>
 </file>
@@ -143,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -156,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +519,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,30 +532,65 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
